--- a/business/Industries/Industries.xlsx
+++ b/business/Industries/Industries.xlsx
@@ -16,6 +16,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>Ddd</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -53,7 +67,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,9 +83,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,12 +123,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +163,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -181,7 +195,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -331,12 +345,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A7:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/business/Industries/Industries.xlsx
+++ b/business/Industries/Industries.xlsx
@@ -19,15 +19,165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Add</t>
-  </si>
-  <si>
-    <t>Ddd</t>
-  </si>
-  <si>
-    <t>ADD</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="53">
+  <si>
+    <t>Level 1</t>
+  </si>
+  <si>
+    <t>Level 2</t>
+  </si>
+  <si>
+    <t>Level 3</t>
+  </si>
+  <si>
+    <t>Level 4</t>
+  </si>
+  <si>
+    <t>Level 5</t>
+  </si>
+  <si>
+    <t>Level 6</t>
+  </si>
+  <si>
+    <t>Level 7</t>
+  </si>
+  <si>
+    <t>Есть</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Industries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transportation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passenger transportation </t>
+  </si>
+  <si>
+    <t>Air passenger transportation</t>
+  </si>
+  <si>
+    <t>Scheduled air passenger transportation</t>
+  </si>
+  <si>
+    <t>Nonscheduled air passenger transportation</t>
+  </si>
+  <si>
+    <t>Ground passenger transportation</t>
+  </si>
+  <si>
+    <t>Road passenger transportation</t>
+  </si>
+  <si>
+    <t>Road passenger transportation by buses</t>
+  </si>
+  <si>
+    <t>Road passenger transportation by public buses</t>
+  </si>
+  <si>
+    <t>Road passenger transportation by rented buses</t>
+  </si>
+  <si>
+    <t>Road passenger transportation by public buses between cities</t>
+  </si>
+  <si>
+    <t>Road passenger transportation on-demand</t>
+  </si>
+  <si>
+    <t>Road passenger transportation by taxi</t>
+  </si>
+  <si>
+    <t>Rail passenger transportation</t>
+  </si>
+  <si>
+    <t>Water passenger transportation</t>
+  </si>
+  <si>
+    <t>Sea passenger transportation</t>
+  </si>
+  <si>
+    <t>Inland waterways passenger transportation</t>
+  </si>
+  <si>
+    <t>Scheduled water passenger transportation</t>
+  </si>
+  <si>
+    <t>Nonscheduled water passenger transportation</t>
+  </si>
+  <si>
+    <t>Space passenger transportation</t>
+  </si>
+  <si>
+    <t>Freight transportation</t>
+  </si>
+  <si>
+    <t>Air freight transportation</t>
+  </si>
+  <si>
+    <t>Scheduled air freight transportation</t>
+  </si>
+  <si>
+    <t>Nonscheduled air freight transportation</t>
+  </si>
+  <si>
+    <t>Ground freight transportation</t>
+  </si>
+  <si>
+    <t>Road freight transportation</t>
+  </si>
+  <si>
+    <t>Rail freight transportation</t>
+  </si>
+  <si>
+    <t>Pipeline freight transportation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Water freight transportation</t>
+  </si>
+  <si>
+    <t>Sea freight transportation</t>
+  </si>
+  <si>
+    <t>Inland waterways freight transportation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Space freight transportation</t>
+  </si>
+  <si>
+    <t>Добавить</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Air transportation </t>
+  </si>
+  <si>
+    <t>Scheduled air transportation</t>
+  </si>
+  <si>
+    <t>Nonscheduled air transportation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ground transportation </t>
+  </si>
+  <si>
+    <t>Road transportation</t>
+  </si>
+  <si>
+    <t>Rail transportation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water transportation </t>
+  </si>
+  <si>
+    <t>Sea transportation</t>
+  </si>
+  <si>
+    <t>Inland waterways transportation</t>
+  </si>
+  <si>
+    <t>Space transportation</t>
   </si>
 </sst>
 </file>
@@ -63,8 +213,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -345,33 +511,686 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:I12"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I12" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="A24:A30"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/business/Industries/Industries.xlsx
+++ b/business/Industries/Industries.xlsx
@@ -147,9 +147,6 @@
     <t xml:space="preserve"> Space freight transportation</t>
   </si>
   <si>
-    <t>Добавить</t>
-  </si>
-  <si>
     <t xml:space="preserve">Air transportation </t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>Space transportation</t>
+  </si>
+  <si>
+    <t>ADD</t>
   </si>
 </sst>
 </file>
@@ -221,15 +221,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,7 +514,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A24" sqref="A24:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,638 +553,638 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="A14" s="6"/>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="4"/>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="4"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="A19" s="6"/>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="4"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="4"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="4"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="4"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="4" t="s">
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
